--- a/lista celus.xlsx
+++ b/lista celus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia.scipioni\Documents\Jupyter\WPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia.scipioni\Documents\GitHub\WPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A0EED2-ED73-4DD5-8D3A-1BE33B61586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BD5D94-F7E3-4831-A927-13338B8D76D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{91EEF06C-F191-480A-91F6-585495FA3648}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>celu</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>+5491140352029</t>
-  </si>
-  <si>
-    <t>+5491169327901</t>
-  </si>
-  <si>
-    <t>+59892037021</t>
   </si>
   <si>
     <t>ci</t>
@@ -412,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFE3D5B-8CCD-4D70-9D66-A3AB95EF9972}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +422,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,47 +446,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>36789654</v>
+        <v>14857831</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1485781</v>
+        <v>36789654</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>15518381</v>
+        <v>37835156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>37835156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
         <v>32033538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>37090556</v>
       </c>
     </row>
   </sheetData>
